--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2783615.140830599</v>
+        <v>2781072.023862002</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>239.807948141505</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>72.93385014149894</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>100.0899351680372</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>64.27923873328281</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X3" t="n">
-        <v>108.2714473069575</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>112.5829952284592</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X4" t="n">
-        <v>148.7175551603403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>31.05856933007693</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2905114143452</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2905114143452</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="G5" t="n">
         <v>12.74220307430065</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.8871100493787</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="X5" t="n">
-        <v>242.9456793794546</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2905114143452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.60410172229</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.9735104574378</v>
       </c>
       <c r="H6" t="n">
-        <v>99.00406368337438</v>
+        <v>99.00406368337435</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>15.09724236790355</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>146.235897424241</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.6426402623424</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8512500608582</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>152.1097319852377</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>67.26981651536349</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.8424117578468</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>125.6496154441977</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.0380733165757</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>122.8401430785811</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>316.962797002109</v>
+        <v>263.9946303209722</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>85.36610313819554</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.0573374602124</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>100.5858322992699</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.095969675624351e-12</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176222</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.0548080622381</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,10 +2792,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634828</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701333</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>41.55695577161238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060093</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>717.0015419180352</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="C2" t="n">
-        <v>474.7712912700503</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="D2" t="n">
-        <v>232.5410406220654</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="E2" t="n">
         <v>158.8704849235816</v>
@@ -4325,55 +4325,55 @@
         <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J2" t="n">
         <v>40.41888584470337</v>
       </c>
       <c r="K2" t="n">
-        <v>122.9820404192956</v>
+        <v>122.9820404192955</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605488</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859564</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779391</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948986</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P2" t="n">
-        <v>924.2476725444251</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R2" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S2" t="n">
-        <v>959.2317925660201</v>
+        <v>858.1308479518394</v>
       </c>
       <c r="T2" t="n">
-        <v>959.2317925660201</v>
+        <v>643.3309862195505</v>
       </c>
       <c r="U2" t="n">
-        <v>959.2317925660201</v>
+        <v>401.100735571566</v>
       </c>
       <c r="V2" t="n">
-        <v>959.2317925660201</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="W2" t="n">
-        <v>959.2317925660201</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="X2" t="n">
-        <v>959.2317925660201</v>
+        <v>158.8704849235816</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.2317925660201</v>
+        <v>158.8704849235816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>473.8910584911422</v>
+        <v>84.11315982433331</v>
       </c>
       <c r="C3" t="n">
-        <v>473.8910584911422</v>
+        <v>84.11315982433331</v>
       </c>
       <c r="D3" t="n">
-        <v>324.9566488298909</v>
+        <v>84.11315982433331</v>
       </c>
       <c r="E3" t="n">
-        <v>165.7191938244354</v>
+        <v>84.11315982433331</v>
       </c>
       <c r="F3" t="n">
-        <v>19.1846358513204</v>
+        <v>84.11315982433331</v>
       </c>
       <c r="G3" t="n">
-        <v>19.1846358513204</v>
+        <v>84.11315982433331</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J3" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K3" t="n">
-        <v>86.79245551467741</v>
+        <v>114.1561081375947</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0220535303713</v>
+        <v>251.3857061532884</v>
       </c>
       <c r="M3" t="n">
-        <v>403.5193898849761</v>
+        <v>430.883042507893</v>
       </c>
       <c r="N3" t="n">
-        <v>602.1761315376407</v>
+        <v>668.2929111679825</v>
       </c>
       <c r="O3" t="n">
-        <v>761.6884442064013</v>
+        <v>827.8052238367429</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640431</v>
+        <v>936.4948513640416</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S3" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T3" t="n">
-        <v>959.2317925660201</v>
+        <v>762.242496726106</v>
       </c>
       <c r="U3" t="n">
-        <v>959.2317925660201</v>
+        <v>534.1037092372717</v>
       </c>
       <c r="V3" t="n">
-        <v>959.2317925660201</v>
+        <v>534.1037092372717</v>
       </c>
       <c r="W3" t="n">
-        <v>959.2317925660201</v>
+        <v>291.8734585892872</v>
       </c>
       <c r="X3" t="n">
-        <v>849.866694276164</v>
+        <v>291.8734585892872</v>
       </c>
       <c r="Y3" t="n">
-        <v>642.1063955112102</v>
+        <v>84.11315982433331</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>809.0120398788076</v>
+        <v>132.9048330517842</v>
       </c>
       <c r="C4" t="n">
-        <v>640.0758569509007</v>
+        <v>132.9048330517842</v>
       </c>
       <c r="D4" t="n">
-        <v>489.959217538565</v>
+        <v>132.9048330517842</v>
       </c>
       <c r="E4" t="n">
-        <v>342.0461239561719</v>
+        <v>132.9048330517842</v>
       </c>
       <c r="F4" t="n">
-        <v>342.0461239561719</v>
+        <v>132.9048330517842</v>
       </c>
       <c r="G4" t="n">
-        <v>173.4392789515553</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1846358513204</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469302</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L4" t="n">
-        <v>245.1780356031035</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4476363223414</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N4" t="n">
-        <v>656.2710011584456</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470445</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456602</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.2317925660201</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R4" t="n">
-        <v>959.2317925660201</v>
+        <v>828.753831285421</v>
       </c>
       <c r="S4" t="n">
-        <v>959.2317925660201</v>
+        <v>828.753831285421</v>
       </c>
       <c r="T4" t="n">
-        <v>959.2317925660201</v>
+        <v>603.124634597786</v>
       </c>
       <c r="U4" t="n">
-        <v>959.2317925660201</v>
+        <v>603.124634597786</v>
       </c>
       <c r="V4" t="n">
-        <v>959.2317925660201</v>
+        <v>603.124634597786</v>
       </c>
       <c r="W4" t="n">
-        <v>959.2317925660201</v>
+        <v>360.8943839498015</v>
       </c>
       <c r="X4" t="n">
-        <v>809.0120398788076</v>
+        <v>132.9048330517842</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.0120398788076</v>
+        <v>132.9048330517842</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>622.5396307141489</v>
+        <v>622.5396307141516</v>
       </c>
       <c r="C5" t="n">
-        <v>622.5396307141489</v>
+        <v>622.5396307141516</v>
       </c>
       <c r="D5" t="n">
-        <v>329.3168919117799</v>
+        <v>622.5396307141516</v>
       </c>
       <c r="E5" t="n">
-        <v>329.3168919117799</v>
+        <v>622.5396307141516</v>
       </c>
       <c r="F5" t="n">
-        <v>36.0941531094109</v>
+        <v>329.3168919117813</v>
       </c>
       <c r="G5" t="n">
-        <v>23.22324091314762</v>
+        <v>316.445979715518</v>
       </c>
       <c r="H5" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="I5" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="J5" t="n">
-        <v>59.13673382951902</v>
+        <v>59.1367338295197</v>
       </c>
       <c r="K5" t="n">
-        <v>163.7002683444941</v>
+        <v>163.7002683444954</v>
       </c>
       <c r="L5" t="n">
-        <v>330.3223409084617</v>
+        <v>330.3223409084635</v>
       </c>
       <c r="M5" t="n">
-        <v>547.3909387162834</v>
+        <v>547.3909387162859</v>
       </c>
       <c r="N5" t="n">
-        <v>772.5857417537005</v>
+        <v>772.585741753704</v>
       </c>
       <c r="O5" t="n">
-        <v>971.8955472416865</v>
+        <v>971.8955472416903</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.500854171407</v>
+        <v>1107.500854171411</v>
       </c>
       <c r="Q5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="R5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="S5" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="T5" t="n">
-        <v>1161.162045657381</v>
+        <v>947.1346617691248</v>
       </c>
       <c r="U5" t="n">
-        <v>1161.162045657381</v>
+        <v>947.1346617691248</v>
       </c>
       <c r="V5" t="n">
-        <v>1161.162045657381</v>
+        <v>947.1346617691248</v>
       </c>
       <c r="W5" t="n">
-        <v>1161.162045657381</v>
+        <v>653.9119229667546</v>
       </c>
       <c r="X5" t="n">
-        <v>915.7623695165178</v>
+        <v>653.9119229667546</v>
       </c>
       <c r="Y5" t="n">
-        <v>622.5396307141489</v>
+        <v>653.9119229667546</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>123.2273456438288</v>
+        <v>419.8117809093226</v>
       </c>
       <c r="C6" t="n">
-        <v>123.2273456438288</v>
+        <v>419.8117809093226</v>
       </c>
       <c r="D6" t="n">
-        <v>123.2273456438288</v>
+        <v>419.8117809093226</v>
       </c>
       <c r="E6" t="n">
-        <v>123.2273456438288</v>
+        <v>260.5743259038671</v>
       </c>
       <c r="F6" t="n">
-        <v>123.2273456438288</v>
+        <v>260.5743259038671</v>
       </c>
       <c r="G6" t="n">
-        <v>123.2273456438288</v>
+        <v>123.2273456438289</v>
       </c>
       <c r="H6" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="I6" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="J6" t="n">
-        <v>150.6253492920936</v>
+        <v>150.625349292094</v>
       </c>
       <c r="K6" t="n">
-        <v>233.1761032933332</v>
+        <v>233.1761032933339</v>
       </c>
       <c r="L6" t="n">
-        <v>390.4983205989442</v>
+        <v>390.4983205989454</v>
       </c>
       <c r="M6" t="n">
-        <v>595.9982052478055</v>
+        <v>593.4427959572577</v>
       </c>
       <c r="N6" t="n">
-        <v>818.7226619044656</v>
+        <v>816.1672526139183</v>
       </c>
       <c r="O6" t="n">
-        <v>1000.252231792096</v>
+        <v>1000.2522317921</v>
       </c>
       <c r="P6" t="n">
-        <v>1126.612649313221</v>
+        <v>1126.612649313226</v>
       </c>
       <c r="Q6" t="n">
-        <v>1161.162045657381</v>
+        <v>1161.162045657386</v>
       </c>
       <c r="R6" t="n">
-        <v>1161.162045657381</v>
+        <v>1145.912305891827</v>
       </c>
       <c r="S6" t="n">
-        <v>1161.162045657381</v>
+        <v>998.1992781905735</v>
       </c>
       <c r="T6" t="n">
-        <v>1161.162045657381</v>
+        <v>801.5905506528538</v>
       </c>
       <c r="U6" t="n">
-        <v>1161.162045657381</v>
+        <v>573.4579748338051</v>
       </c>
       <c r="V6" t="n">
-        <v>926.0099374256383</v>
+        <v>419.8117809093226</v>
       </c>
       <c r="W6" t="n">
-        <v>671.7725806974368</v>
+        <v>419.8117809093226</v>
       </c>
       <c r="X6" t="n">
-        <v>463.9210804919039</v>
+        <v>419.8117809093226</v>
       </c>
       <c r="Y6" t="n">
-        <v>256.16078172695</v>
+        <v>419.8117809093226</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.0725174234476</v>
+        <v>191.7509295574374</v>
       </c>
       <c r="C7" t="n">
-        <v>171.1363344955407</v>
+        <v>191.7509295574374</v>
       </c>
       <c r="D7" t="n">
-        <v>171.1363344955407</v>
+        <v>191.7509295574374</v>
       </c>
       <c r="E7" t="n">
-        <v>23.22324091314762</v>
+        <v>191.7509295574374</v>
       </c>
       <c r="F7" t="n">
-        <v>23.22324091314762</v>
+        <v>191.7509295574374</v>
       </c>
       <c r="G7" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="H7" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="I7" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="J7" t="n">
-        <v>23.22324091314762</v>
+        <v>23.22324091314772</v>
       </c>
       <c r="K7" t="n">
-        <v>133.2846894279144</v>
+        <v>133.2846894279147</v>
       </c>
       <c r="L7" t="n">
-        <v>329.6518852993035</v>
+        <v>329.6518852993041</v>
       </c>
       <c r="M7" t="n">
-        <v>547.0826837276982</v>
+        <v>547.0826837276991</v>
       </c>
       <c r="N7" t="n">
-        <v>764.7780801730489</v>
+        <v>764.7780801730501</v>
       </c>
       <c r="O7" t="n">
-        <v>949.8387182967849</v>
+        <v>949.8387182967863</v>
       </c>
       <c r="P7" t="n">
-        <v>1084.669382195906</v>
+        <v>1084.669382195908</v>
       </c>
       <c r="Q7" t="n">
-        <v>1094.584064899862</v>
+        <v>1094.584064899864</v>
       </c>
       <c r="R7" t="n">
-        <v>1094.584064899862</v>
+        <v>967.6652614208762</v>
       </c>
       <c r="S7" t="n">
-        <v>1094.584064899862</v>
+        <v>967.6652614208762</v>
       </c>
       <c r="T7" t="n">
-        <v>1094.584064899862</v>
+        <v>742.3742782728199</v>
       </c>
       <c r="U7" t="n">
-        <v>1094.584064899862</v>
+        <v>742.3742782728199</v>
       </c>
       <c r="V7" t="n">
-        <v>1094.584064899862</v>
+        <v>487.689790066933</v>
       </c>
       <c r="W7" t="n">
-        <v>970.5031122952348</v>
+        <v>487.689790066933</v>
       </c>
       <c r="X7" t="n">
-        <v>742.5135613972175</v>
+        <v>259.7002391689157</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.7209822536873</v>
+        <v>259.7002391689157</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>736.6224273402288</v>
+        <v>987.1783726748436</v>
       </c>
       <c r="C8" t="n">
-        <v>736.6224273402288</v>
+        <v>987.1783726748436</v>
       </c>
       <c r="D8" t="n">
-        <v>378.3567287334783</v>
+        <v>628.9126740680931</v>
       </c>
       <c r="E8" t="n">
-        <v>378.3567287334783</v>
+        <v>628.9126740680931</v>
       </c>
       <c r="F8" t="n">
-        <v>371.4112279842748</v>
+        <v>621.9671733188896</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4802,52 +4802,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362704</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852815979</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872829</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923555</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230812</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740836</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190805</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847234</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1500.22751757712</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>1126.761759316041</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>736.6224273402288</v>
+        <v>1373.778212738965</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182519</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429694</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744422</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733664</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.49210333061</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506773</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292608</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4960,52 +4960,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1550.217733066223</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1550.217733066223</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1550.217733066223</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1295.533244860336</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>342.4631083446094</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048574</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925216</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>444.7013164925216</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>444.7013164925216</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>277.5052172074016</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5261,34 +5261,34 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121655</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121655</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876711</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597642</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474284</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474284</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782978</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038365</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797765</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359458</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.340348461441</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179108</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,43 +6455,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466574</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6692,22 +6692,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6944,43 +6944,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>721.7774158311364</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2185.384895601573</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>903.4258806613761</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362704</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928398</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.64005315446205</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>39.14457273477285</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>66.7846258892354</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>101.9822523045392</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
         <v>178.5096609094456</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>74.51411407702477</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.74236624506821</v>
+        <v>54.74236624506796</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.581221505605555</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>2.581221505607317</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241482</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>39.70888054695402</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405066</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606932</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25211,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.4693302300322</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.28295407562295</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>776279.8238030678</v>
+        <v>776279.8238030677</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>783546.37142685</v>
+        <v>783546.3714268502</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758809.4840135021</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758809.484013502</v>
+        <v>758809.4840135019</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.4840135021</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758809.4840135019</v>
+        <v>758809.484013502</v>
       </c>
     </row>
     <row r="16">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380329</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="G2" t="n">
         <v>665895.9447442552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
@@ -26335,10 +26335,10 @@
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
@@ -26347,13 +26347,13 @@
         <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,37 +26363,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>652246.4444800895</v>
+        <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>55881.32342210802</v>
+        <v>55881.32342210982</v>
       </c>
       <c r="D3" t="n">
-        <v>363279.8866276272</v>
+        <v>363279.8866276238</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.654869427746674e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353577</v>
+        <v>62744.31078353576</v>
       </c>
       <c r="K3" t="n">
-        <v>12992.59634440455</v>
+        <v>12992.5963444048</v>
       </c>
       <c r="L3" t="n">
-        <v>88656.33991666268</v>
+        <v>88656.33991666257</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>246054.6603431042</v>
+        <v>246054.6603431038</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828186</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,16 +26430,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="K4" t="n">
         <v>12996.8641468304</v>
@@ -26448,16 +26448,16 @@
         <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.86414683034</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683035</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.8641468304</v>
+        <v>12996.86414683044</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61145.70223437332</v>
+        <v>61145.70223437329</v>
       </c>
       <c r="C5" t="n">
-        <v>65162.40123302693</v>
+        <v>65162.40123302703</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-297095.4940824551</v>
+        <v>-297095.4940824548</v>
       </c>
       <c r="C6" t="n">
-        <v>310261.0751397942</v>
+        <v>310261.0751397922</v>
       </c>
       <c r="D6" t="n">
-        <v>77190.70708774353</v>
+        <v>77190.70708774665</v>
       </c>
       <c r="E6" t="n">
-        <v>44291.10914897353</v>
+        <v>44256.37122353622</v>
       </c>
       <c r="F6" t="n">
-        <v>551776.5507735177</v>
+        <v>551741.8128480815</v>
       </c>
       <c r="G6" t="n">
-        <v>551776.5507735176</v>
+        <v>551741.8128480819</v>
       </c>
       <c r="H6" t="n">
-        <v>551776.5507735173</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="I6" t="n">
-        <v>551776.5507735175</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="J6" t="n">
-        <v>489032.2399899815</v>
+        <v>488997.502064546</v>
       </c>
       <c r="K6" t="n">
-        <v>538783.9544291126</v>
+        <v>538749.216503677</v>
       </c>
       <c r="L6" t="n">
-        <v>463120.2108568549</v>
+        <v>463085.4729314193</v>
       </c>
       <c r="M6" t="n">
-        <v>419169.257044591</v>
+        <v>419134.5191191552</v>
       </c>
       <c r="N6" t="n">
-        <v>551776.5507735176</v>
+        <v>551741.8128480817</v>
       </c>
       <c r="O6" t="n">
-        <v>551776.5507735175</v>
+        <v>551741.8128480816</v>
       </c>
       <c r="P6" t="n">
-        <v>551776.5507735175</v>
+        <v>551741.812848082</v>
       </c>
     </row>
   </sheetData>
@@ -26698,16 +26698,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>636.932942157557</v>
+        <v>636.932942157558</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>290.2905114143452</v>
+        <v>290.2905114143466</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26814,22 +26814,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>-6.536610333467188e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.536610333467188e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.016897076984855e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,34 +26957,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>593.476100338065</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>43.45684181949207</v>
+        <v>43.45684181949343</v>
       </c>
       <c r="D3" t="n">
-        <v>297.1319499599846</v>
+        <v>297.1319499599811</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="C4" t="n">
-        <v>50.48256327284026</v>
+        <v>50.48256327284197</v>
       </c>
       <c r="D4" t="n">
-        <v>350.2943206856935</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415043</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284048</v>
+        <v>50.4825632728422</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856928</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.807948141505</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="K4" t="n">
-        <v>50.48256327284026</v>
+        <v>50.48256327284197</v>
       </c>
       <c r="L4" t="n">
-        <v>350.2943206856935</v>
+        <v>350.2943206856922</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142.9258935219756</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.4649436295025</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>308.9965199307628</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>54.56295196010305</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1547862223006</v>
+        <v>11.34683808079604</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>87.94431032863031</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>35.62757934336065</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44580843958668</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183511</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941501</v>
       </c>
       <c r="X3" t="n">
-        <v>97.50153789651998</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>54.33778132611127</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>17.695841881769</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001186</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.260654658097</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508641</v>
       </c>
       <c r="X4" t="n">
-        <v>76.99210022869681</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>351.6752723334037</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>64.39253020633771</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.5855343273662</v>
+        <v>116.5855343273649</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>313.2517287735719</v>
+        <v>22.96121735922527</v>
       </c>
       <c r="I5" t="n">
-        <v>111.7608855401377</v>
+        <v>111.7608855401375</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>150.6718910157314</v>
+        <v>150.6718910157313</v>
       </c>
       <c r="T5" t="n">
-        <v>211.8871100493788</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1408101525697</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>58.95045730306646</v>
       </c>
       <c r="X5" t="n">
-        <v>126.7854212990145</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.94742724170834</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.92908192757736</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.9735104574378</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>42.22754232370919</v>
+        <v>42.22754232370912</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>15.09724236790369</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2358974242411</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.6426402623424</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8512500608582</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>80.69085516418758</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>112.5621636665738</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8424117578468</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.0153623856348</v>
@@ -27795,7 +27795,7 @@
         <v>120.9099147197632</v>
       </c>
       <c r="J7" t="n">
-        <v>12.15545075340523</v>
+        <v>12.15545075340511</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>125.6496154441977</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.0001972153979</v>
       </c>
       <c r="T7" t="n">
-        <v>223.0380733165757</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2563802146393</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>163.68285525801</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>94.58490577084495</v>
+        <v>147.5530724519817</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>109.2963572235419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.52731589188241</v>
       </c>
     </row>
     <row r="11">
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.179333311515025e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29512,10 +29512,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>-9.003997547551989e-13</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.030694428354666e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,10 +30472,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-6.536610333467188e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.763570898511826e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.385833569198249</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H2" t="n">
-        <v>24.43391804055157</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I2" t="n">
-        <v>91.97984867651559</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J2" t="n">
-        <v>202.4946418937401</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K2" t="n">
-        <v>303.4869768779021</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L2" t="n">
-        <v>376.502430971253</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M2" t="n">
-        <v>418.9314987074824</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N2" t="n">
-        <v>425.710248335967</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O2" t="n">
-        <v>401.9861157822518</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P2" t="n">
-        <v>343.08584954267</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q2" t="n">
-        <v>257.6431848457576</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S2" t="n">
-        <v>54.36718245810516</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T2" t="n">
-        <v>10.44398644916534</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.276533498840366</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H3" t="n">
         <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9508244118284</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J3" t="n">
-        <v>120.6044214847383</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K3" t="n">
-        <v>206.1321659070428</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L3" t="n">
-        <v>277.1701353512822</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M3" t="n">
-        <v>323.4444746842453</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N3" t="n">
-        <v>332.0050874900653</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O3" t="n">
-        <v>303.7197925947077</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P3" t="n">
-        <v>243.7619099671573</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.9483813607457</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R3" t="n">
-        <v>79.25705355080802</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S3" t="n">
-        <v>23.71104985784626</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T3" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0839824670289715</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.070202803888314</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H4" t="n">
-        <v>9.515075838207014</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I4" t="n">
-        <v>32.1839170478413</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J4" t="n">
-        <v>75.66333823490378</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3381075790241</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L4" t="n">
-        <v>159.1099695889953</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M4" t="n">
-        <v>167.7591540676927</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N4" t="n">
-        <v>163.7702163441091</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O4" t="n">
-        <v>151.2683017714137</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P4" t="n">
-        <v>129.436164572092</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.6148911510478</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R4" t="n">
-        <v>48.12020970937817</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S4" t="n">
-        <v>18.65071613685361</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T4" t="n">
-        <v>4.572684707522794</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05837469839390809</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.560534440834398</v>
+        <v>2.560534440834402</v>
       </c>
       <c r="H5" t="n">
-        <v>26.22307334219529</v>
+        <v>26.22307334219533</v>
       </c>
       <c r="I5" t="n">
-        <v>98.71500403026823</v>
+        <v>98.71500403026839</v>
       </c>
       <c r="J5" t="n">
-        <v>217.3221599977687</v>
+        <v>217.322159997769</v>
       </c>
       <c r="K5" t="n">
-        <v>325.7095828782888</v>
+        <v>325.7095828782894</v>
       </c>
       <c r="L5" t="n">
-        <v>404.0715387719746</v>
+        <v>404.0715387719753</v>
       </c>
       <c r="M5" t="n">
-        <v>449.6074431341634</v>
+        <v>449.607443134164</v>
       </c>
       <c r="N5" t="n">
-        <v>456.8825616141841</v>
+        <v>456.8825616141849</v>
       </c>
       <c r="O5" t="n">
-        <v>431.4212472681371</v>
+        <v>431.4212472681377</v>
       </c>
       <c r="P5" t="n">
-        <v>368.2080532600378</v>
+        <v>368.2080532600384</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.5089135976558</v>
+        <v>276.5089135976563</v>
       </c>
       <c r="R5" t="n">
-        <v>160.8431715690639</v>
+        <v>160.8431715690642</v>
       </c>
       <c r="S5" t="n">
-        <v>58.34817857051391</v>
+        <v>58.348178570514</v>
       </c>
       <c r="T5" t="n">
-        <v>11.20873951475258</v>
+        <v>11.2087395147526</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2048427552667518</v>
+        <v>0.2048427552667521</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.370006705772859</v>
+        <v>1.370006705772861</v>
       </c>
       <c r="H6" t="n">
-        <v>13.23138055312208</v>
+        <v>13.2313805531221</v>
       </c>
       <c r="I6" t="n">
-        <v>47.16909052770588</v>
+        <v>47.16909052770595</v>
       </c>
       <c r="J6" t="n">
-        <v>129.4355896888296</v>
+        <v>129.4355896888298</v>
       </c>
       <c r="K6" t="n">
-        <v>221.2260389756111</v>
+        <v>221.2260389756115</v>
       </c>
       <c r="L6" t="n">
-        <v>297.4657103916025</v>
+        <v>297.465710391603</v>
       </c>
       <c r="M6" t="n">
-        <v>347.1284534758685</v>
+        <v>347.1284534758691</v>
       </c>
       <c r="N6" t="n">
-        <v>356.3159107264243</v>
+        <v>356.3159107264249</v>
       </c>
       <c r="O6" t="n">
-        <v>325.9594463511415</v>
+        <v>325.959446351142</v>
       </c>
       <c r="P6" t="n">
-        <v>261.6111927892049</v>
+        <v>261.6111927892053</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.8801542316372</v>
+        <v>174.8801542316375</v>
       </c>
       <c r="R6" t="n">
-        <v>85.06059178473944</v>
+        <v>85.06059178473959</v>
       </c>
       <c r="S6" t="n">
-        <v>25.44727367959672</v>
+        <v>25.44727367959676</v>
       </c>
       <c r="T6" t="n">
-        <v>5.522088432479196</v>
+        <v>5.522088432479205</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09013202011663547</v>
+        <v>0.09013202011663561</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.148567600611988</v>
+        <v>1.14856760061199</v>
       </c>
       <c r="H7" t="n">
-        <v>10.21181012180477</v>
+        <v>10.21181012180479</v>
       </c>
       <c r="I7" t="n">
-        <v>34.54056020749507</v>
+        <v>34.54056020749512</v>
       </c>
       <c r="J7" t="n">
-        <v>81.20372936326754</v>
+        <v>81.20372936326767</v>
       </c>
       <c r="K7" t="n">
-        <v>133.4426721438291</v>
+        <v>133.4426721438293</v>
       </c>
       <c r="L7" t="n">
-        <v>170.7606776400769</v>
+        <v>170.7606776400771</v>
       </c>
       <c r="M7" t="n">
-        <v>180.04319215775</v>
+        <v>180.0431921577504</v>
       </c>
       <c r="N7" t="n">
-        <v>175.7621674645601</v>
+        <v>175.7621674645603</v>
       </c>
       <c r="O7" t="n">
-        <v>162.3448095846836</v>
+        <v>162.3448095846838</v>
       </c>
       <c r="P7" t="n">
-        <v>138.9140305321989</v>
+        <v>138.9140305321991</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.17687426579111</v>
+        <v>96.17687426579126</v>
       </c>
       <c r="R7" t="n">
-        <v>51.64377593297174</v>
+        <v>51.64377593297182</v>
       </c>
       <c r="S7" t="n">
-        <v>20.01640082157436</v>
+        <v>20.0164008215744</v>
       </c>
       <c r="T7" t="n">
-        <v>4.907516111705766</v>
+        <v>4.907516111705774</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06264914185156305</v>
+        <v>0.06264914185156316</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32336,7 +32336,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,13 +32777,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32795,31 +32795,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,22 +33026,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817599</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118741</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975237</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705381</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292152</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L2" t="n">
-        <v>140.7360160012658</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M2" t="n">
-        <v>188.5852654802096</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N2" t="n">
-        <v>196.2971847393761</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O2" t="n">
-        <v>171.8879043605651</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q2" t="n">
-        <v>35.33749497130813</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>68.29072693268384</v>
+        <v>95.93078008714575</v>
       </c>
       <c r="L3" t="n">
-        <v>138.615755571408</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
-        <v>181.310440762227</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N3" t="n">
-        <v>200.6633754067319</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="O3" t="n">
-        <v>161.1235481502632</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5721284420625</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.9666072747242</v>
+        <v>22.96660727472408</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531412</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L4" t="n">
-        <v>126.2075456122962</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>207.3430310295333</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
-        <v>207.9023887233377</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>175.8534296854534</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P4" t="n">
-        <v>126.7147238369855</v>
+        <v>66.2222745999691</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.452847899353415</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>36.27625547108241</v>
+        <v>36.27625547108275</v>
       </c>
       <c r="K5" t="n">
-        <v>105.6197318333083</v>
+        <v>105.6197318333088</v>
       </c>
       <c r="L5" t="n">
-        <v>168.3051238019874</v>
+        <v>168.305123801988</v>
       </c>
       <c r="M5" t="n">
-        <v>219.2612099068906</v>
+        <v>219.2612099068913</v>
       </c>
       <c r="N5" t="n">
-        <v>227.4694980175932</v>
+        <v>227.4694980175939</v>
       </c>
       <c r="O5" t="n">
-        <v>201.3230358464503</v>
+        <v>201.323035846451</v>
       </c>
       <c r="P5" t="n">
-        <v>136.9750575047682</v>
+        <v>136.9750575047688</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.20322372320632</v>
+        <v>54.20322372320678</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>128.6889983625717</v>
+        <v>128.688998362572</v>
       </c>
       <c r="K6" t="n">
-        <v>83.38460000125212</v>
+        <v>83.38460000125249</v>
       </c>
       <c r="L6" t="n">
-        <v>158.9113306117283</v>
+        <v>158.9113306117288</v>
       </c>
       <c r="M6" t="n">
-        <v>207.5756410594558</v>
+        <v>204.9944195538508</v>
       </c>
       <c r="N6" t="n">
-        <v>224.974198643091</v>
+        <v>224.9741986430916</v>
       </c>
       <c r="O6" t="n">
-        <v>183.363201906697</v>
+        <v>185.9444234123049</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6367853748746</v>
+        <v>127.6367853748751</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.89838014561568</v>
+        <v>34.89838014561596</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>111.1731803179463</v>
+        <v>111.1731803179465</v>
       </c>
       <c r="L7" t="n">
-        <v>198.350702900393</v>
+        <v>198.3507029003933</v>
       </c>
       <c r="M7" t="n">
-        <v>219.6270691195906</v>
+        <v>219.6270691195909</v>
       </c>
       <c r="N7" t="n">
-        <v>219.8943398437887</v>
+        <v>219.8943398437889</v>
       </c>
       <c r="O7" t="n">
-        <v>186.9299374987233</v>
+        <v>186.9299374987235</v>
       </c>
       <c r="P7" t="n">
-        <v>136.1925897970924</v>
+        <v>136.1925897970926</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.01483101409673</v>
+        <v>10.01483101409687</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676339</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634704</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295553</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367793</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831934</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
